--- a/lw3/lw3/Графики.xlsx
+++ b/lw3/lw3/Графики.xlsx
@@ -482,7 +482,428 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Индекс потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.655</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7869999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$2:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B01-42BA-9864-DBD4269B8598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="745211952"/>
+        <c:axId val="745213616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="745211952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745213616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="745213616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745211952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1038,6 +1459,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1065,6 +2002,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1339,7 +2306,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,6 +2315,7 @@
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1362,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1380,6 +2348,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="L2" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1392,6 +2366,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
+      <c r="L3" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1404,6 +2384,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
+      <c r="L4" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1416,6 +2402,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="L5" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1428,6 +2420,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
+      <c r="L6" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1440,6 +2438,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1"/>
+      <c r="L7" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1452,6 +2456,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="1"/>
+      <c r="L8" s="1">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1464,6 +2474,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
+      <c r="L9" s="1">
+        <v>1.202</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1476,6 +2492,12 @@
         <v>2</v>
       </c>
       <c r="D10" s="1"/>
+      <c r="L10" s="1">
+        <v>1.359</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1488,6 +2510,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="1"/>
+      <c r="L11" s="1">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -1496,6 +2524,12 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
+      <c r="L12" s="1">
+        <v>1.518</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -1504,6 +2538,12 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
+      <c r="L13" s="1">
+        <v>1.655</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -1512,6 +2552,12 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
+      <c r="L14" s="1">
+        <v>1.798</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -1520,6 +2566,12 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
+      <c r="L15" s="1">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -1528,45 +2580,81 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
+      <c r="L16" s="1">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1.123</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
+      <c r="L17" s="1">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>1.2749999999999999</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
+      <c r="L18" s="1">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1.278</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
+      <c r="L19" s="1">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1.403</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
+      <c r="L20" s="1">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1.4059999999999999</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
